--- a/ทะเบียนคุมสัญญา.xlsx
+++ b/ทะเบียนคุมสัญญา.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bot Python\Excel to mail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectBot\BotPythonForSetEmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C95566-1962-475F-B8BD-ED2F005F2D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE7A439-115D-4379-8F77-364BCA2948BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{784920A8-E31B-45B5-9F61-1EEED2FB18A2}"/>
+    <workbookView xWindow="5610" yWindow="3105" windowWidth="21600" windowHeight="11385" xr2:uid="{784920A8-E31B-45B5-9F61-1EEED2FB18A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="SheetData" sheetId="3" r:id="rId1"/>
     <sheet name="สัญญาจ้าง(WO)" sheetId="1" r:id="rId2"/>
     <sheet name="ทะเบียนคุมสัญญาผู้ขาย" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -341,7 +341,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="[$฿-41E]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$฿-41E]#,##0.00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -460,7 +460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -499,21 +499,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -521,15 +520,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="[$฿-41E]#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$฿-41E]#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -549,6 +540,14 @@
     <dxf>
       <numFmt numFmtId="20" formatCode="d\-mmm\-yy"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -563,28 +562,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD4F10C-7BFF-4BE0-A609-B46991FAD480}" name="Table1" displayName="Table1" ref="A1:G28" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AAD4F10C-7BFF-4BE0-A609-B46991FAD480}" name="Table1" displayName="Table1" ref="A1:G28" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:G28" xr:uid="{AAD4F10C-7BFF-4BE0-A609-B46991FAD480}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5378A2D8-2C5E-4B23-9859-5B0DAA1C6675}" name="Date" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{5378A2D8-2C5E-4B23-9859-5B0DAA1C6675}" name="Date" dataDxfId="6">
       <calculatedColumnFormula>'สัญญาจ้าง(WO)'!F4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C6F76C65-D391-47EC-8142-2C946A456563}" name="DateUs" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{C6F76C65-D391-47EC-8142-2C946A456563}" name="DateUs" dataDxfId="5">
       <calculatedColumnFormula>EDATE(Table1[[#This Row],[Date]],-543*12)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{544C9723-AF12-426F-9555-4C4FB7A6D60C}" name="เลขที่สัญญา" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{544C9723-AF12-426F-9555-4C4FB7A6D60C}" name="เลขที่สัญญา" dataDxfId="4">
       <calculatedColumnFormula>'สัญญาจ้าง(WO)'!B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{294FF0B9-266F-4F9A-BB79-9080C137748E}" name="ชื่อสัญญา" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{294FF0B9-266F-4F9A-BB79-9080C137748E}" name="ชื่อสัญญา" dataDxfId="3">
       <calculatedColumnFormula>'สัญญาจ้าง(WO)'!C4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EA3BD6BB-88BB-417A-8DF3-171B1B6F0CF5}" name="โครงการ" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{EA3BD6BB-88BB-417A-8DF3-171B1B6F0CF5}" name="โครงการ" dataDxfId="2">
       <calculatedColumnFormula>'สัญญาจ้าง(WO)'!D4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{BE0B0961-9260-46BE-AE7B-42BDBB4A4015}" name="ผู้ขาย/ให้บริการ" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{BE0B0961-9260-46BE-AE7B-42BDBB4A4015}" name="ผู้ขาย/ให้บริการ" dataDxfId="1">
       <calculatedColumnFormula>'สัญญาจ้าง(WO)'!G4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A5305AD9-16CE-4B45-9A89-7CBF51606562}" name="มูลค่าสัญญา" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{A5305AD9-16CE-4B45-9A89-7CBF51606562}" name="มูลค่าสัญญา" dataDxfId="0">
       <calculatedColumnFormula>'สัญญาจ้าง(WO)'!H4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -892,7 +891,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -903,29 +902,29 @@
     <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="78.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -938,23 +937,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45121</v>
       </c>
-      <c r="C2" s="16" t="str">
+      <c r="C2" t="str">
         <f>'สัญญาจ้าง(WO)'!B4</f>
         <v>WO2023060035</v>
       </c>
-      <c r="D2" s="16" t="str">
+      <c r="D2" t="str">
         <f>'สัญญาจ้าง(WO)'!C4</f>
         <v>ค่าเช่าเฉพาะเครื่องจักร รถกระเช้าบูมตรง</v>
       </c>
-      <c r="E2" s="16" t="str">
+      <c r="E2" t="str">
         <f>'สัญญาจ้าง(WO)'!D4</f>
         <v>งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal</v>
       </c>
-      <c r="F2" s="16" t="str">
+      <c r="F2" t="str">
         <f>'สัญญาจ้าง(WO)'!G4</f>
         <v>บริษัท พีดับบลิวเอ็ม แมชชีนเนอรี่ (ไทยแลนด์) จํากัด</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="14">
         <f>'สัญญาจ้าง(WO)'!H4</f>
         <v>65000</v>
       </c>
@@ -968,23 +967,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45125</v>
       </c>
-      <c r="C3" s="16" t="str">
+      <c r="C3" t="str">
         <f>'สัญญาจ้าง(WO)'!B5</f>
         <v>WO2023060056</v>
       </c>
-      <c r="D3" s="16" t="str">
+      <c r="D3" t="str">
         <f>'สัญญาจ้าง(WO)'!C5</f>
         <v>ค่าเช่าเฉพาะเครื่องจักร รถกระเช้าบูมตรง</v>
       </c>
-      <c r="E3" s="16" t="str">
+      <c r="E3" t="str">
         <f>'สัญญาจ้าง(WO)'!D5</f>
         <v>งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal</v>
       </c>
-      <c r="F3" s="16" t="str">
+      <c r="F3" t="str">
         <f>'สัญญาจ้าง(WO)'!G5</f>
         <v>บริษัท พีดับบลิวเอ็ม แมชชีนเนอรี่ (ไทยแลนด์) จํากัด</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="14">
         <f>'สัญญาจ้าง(WO)'!H5</f>
         <v>130000</v>
       </c>
@@ -998,23 +997,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45125</v>
       </c>
-      <c r="C4" s="16" t="str">
+      <c r="C4" t="str">
         <f>'สัญญาจ้าง(WO)'!B6</f>
         <v>WO2023060057</v>
       </c>
-      <c r="D4" s="16" t="str">
+      <c r="D4" t="str">
         <f>'สัญญาจ้าง(WO)'!C6</f>
         <v>ค่าเช่าเฉพาะเครื่องจักร รถกระเช้าบูมตรง</v>
       </c>
-      <c r="E4" s="16" t="str">
+      <c r="E4" t="str">
         <f>'สัญญาจ้าง(WO)'!D6</f>
         <v>งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal</v>
       </c>
-      <c r="F4" s="16" t="str">
+      <c r="F4" t="str">
         <f>'สัญญาจ้าง(WO)'!G6</f>
         <v>บริษัท พีดับบลิวเอ็ม แมชชีนเนอรี่ (ไทยแลนด์) จํากัด</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="14">
         <f>'สัญญาจ้าง(WO)'!H6</f>
         <v>65000</v>
       </c>
@@ -1028,23 +1027,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45125</v>
       </c>
-      <c r="C5" s="16" t="str">
+      <c r="C5" t="str">
         <f>'สัญญาจ้าง(WO)'!B7</f>
         <v>WO2023060058</v>
       </c>
-      <c r="D5" s="16" t="str">
+      <c r="D5" t="str">
         <f>'สัญญาจ้าง(WO)'!C7</f>
         <v>ค่าเช่าเฉพาะเครื่องจักร รถกระเช้าบูมตรง</v>
       </c>
-      <c r="E5" s="16" t="str">
+      <c r="E5" t="str">
         <f>'สัญญาจ้าง(WO)'!D7</f>
         <v>โครงการจ้างเหมาปรับปรุง Landscape อาคาร Enco Terminal (Enter)</v>
       </c>
-      <c r="F5" s="16" t="str">
+      <c r="F5" t="str">
         <f>'สัญญาจ้าง(WO)'!G7</f>
         <v>บริษัท พีดับบลิวเอ็ม แมชชีนเนอรี่ (ไทยแลนด์) จํากัด</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="14">
         <f>'สัญญาจ้าง(WO)'!H7</f>
         <v>65000</v>
       </c>
@@ -1058,23 +1057,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45146</v>
       </c>
-      <c r="C6" s="16" t="str">
+      <c r="C6" t="str">
         <f>'สัญญาจ้าง(WO)'!B8</f>
         <v>WO2023070036</v>
       </c>
-      <c r="D6" s="16" t="str">
+      <c r="D6" t="str">
         <f>'สัญญาจ้าง(WO)'!C8</f>
         <v>เช่าเครน35ตัน</v>
       </c>
-      <c r="E6" s="16" t="str">
+      <c r="E6" t="str">
         <f>'สัญญาจ้าง(WO)'!D8</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F6" s="16" t="str">
+      <c r="F6" t="str">
         <f>'สัญญาจ้าง(WO)'!G8</f>
         <v>บริษัท ประยูร เครน 2021 จำกัด</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="14">
         <f>'สัญญาจ้าง(WO)'!H8</f>
         <v>180000</v>
       </c>
@@ -1088,23 +1087,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45131</v>
       </c>
-      <c r="C7" s="16" t="str">
+      <c r="C7" t="str">
         <f>'สัญญาจ้าง(WO)'!B9</f>
         <v>WO2023060087</v>
       </c>
-      <c r="D7" s="16" t="str">
+      <c r="D7" t="str">
         <f>'สัญญาจ้าง(WO)'!C9</f>
         <v>เช่าเครน55ตัน</v>
       </c>
-      <c r="E7" s="16" t="str">
+      <c r="E7" t="str">
         <f>'สัญญาจ้าง(WO)'!D9</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F7" s="16" t="str">
+      <c r="F7" t="str">
         <f>'สัญญาจ้าง(WO)'!G9</f>
         <v>บริษัท ประยูร เครน 2021 จำกัด</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <f>'สัญญาจ้าง(WO)'!H9</f>
         <v>238000</v>
       </c>
@@ -1118,23 +1117,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45156</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" t="str">
         <f>'สัญญาจ้าง(WO)'!B10</f>
         <v>WO2023070039</v>
       </c>
-      <c r="D8" s="16" t="str">
+      <c r="D8" t="str">
         <f>'สัญญาจ้าง(WO)'!C10</f>
         <v>เช่าเครน55ตัน</v>
       </c>
-      <c r="E8" s="16" t="str">
+      <c r="E8" t="str">
         <f>'สัญญาจ้าง(WO)'!D10</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F8" s="16" t="str">
+      <c r="F8" t="str">
         <f>'สัญญาจ้าง(WO)'!G10</f>
         <v>บริษัท ประยูร เครน 2021 จำกัด</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="14">
         <f>'สัญญาจ้าง(WO)'!H10</f>
         <v>238000</v>
       </c>
@@ -1148,23 +1147,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45130</v>
       </c>
-      <c r="C9" s="16" t="str">
+      <c r="C9" t="str">
         <f>'สัญญาจ้าง(WO)'!B11</f>
         <v>WO2023060085</v>
       </c>
-      <c r="D9" s="16" t="str">
+      <c r="D9" t="str">
         <f>'สัญญาจ้าง(WO)'!C11</f>
         <v>รถโฟรคลิฟท์</v>
       </c>
-      <c r="E9" s="16" t="str">
+      <c r="E9" t="str">
         <f>'สัญญาจ้าง(WO)'!D11</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F9" s="16" t="str">
+      <c r="F9" t="str">
         <f>'สัญญาจ้าง(WO)'!G11</f>
         <v>บริษัท นวมินทร์ โฟร์คลิฟท์ จำกัด</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="14">
         <f>'สัญญาจ้าง(WO)'!H11</f>
         <v>22000</v>
       </c>
@@ -1178,23 +1177,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45130</v>
       </c>
-      <c r="C10" s="16" t="str">
+      <c r="C10" t="str">
         <f>'สัญญาจ้าง(WO)'!B12</f>
         <v>WO2023060084</v>
       </c>
-      <c r="D10" s="16" t="str">
+      <c r="D10" t="str">
         <f>'สัญญาจ้าง(WO)'!C12</f>
         <v>เช่าอุปกรณ์นั่งร้าน</v>
       </c>
-      <c r="E10" s="16" t="str">
+      <c r="E10" t="str">
         <f>'สัญญาจ้าง(WO)'!D12</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F10" s="16" t="str">
+      <c r="F10" t="str">
         <f>'สัญญาจ้าง(WO)'!G12</f>
         <v>บริษัท นั่งร้านแบบเหล็กไทย จำกัด</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="14">
         <f>'สัญญาจ้าง(WO)'!H12</f>
         <v>68943</v>
       </c>
@@ -1208,23 +1207,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45169</v>
       </c>
-      <c r="C11" s="16" t="str">
+      <c r="C11" t="str">
         <f>'สัญญาจ้าง(WO)'!B13</f>
         <v>WO2023060082</v>
       </c>
-      <c r="D11" s="16" t="str">
+      <c r="D11" t="str">
         <f>'สัญญาจ้าง(WO)'!C13</f>
         <v>เช่าตู้ออฟฟิศ 2 ตู้ 2เดือน</v>
       </c>
-      <c r="E11" s="16" t="str">
+      <c r="E11" t="str">
         <f>'สัญญาจ้าง(WO)'!D13</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F11" s="16" t="str">
+      <c r="F11" t="str">
         <f>'สัญญาจ้าง(WO)'!G13</f>
         <v xml:space="preserve">บริษัท ที.อาร์.ดี.เวิร์ค จำกัด </v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="14">
         <f>'สัญญาจ้าง(WO)'!H13</f>
         <v>24000</v>
       </c>
@@ -1238,23 +1237,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45169</v>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" t="str">
         <f>'สัญญาจ้าง(WO)'!B14</f>
         <v>WO2023060083</v>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" t="str">
         <f>'สัญญาจ้าง(WO)'!C14</f>
         <v>เช่าตู้ออฟฟิศ 1 ตู้ 2 เดือน</v>
       </c>
-      <c r="E12" s="16" t="str">
+      <c r="E12" t="str">
         <f>'สัญญาจ้าง(WO)'!D14</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" t="str">
         <f>'สัญญาจ้าง(WO)'!G14</f>
         <v xml:space="preserve">บริษัท ที.อาร์.ดี.เวิร์ค จำกัด </v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="14">
         <f>'สัญญาจ้าง(WO)'!H14</f>
         <v>12000</v>
       </c>
@@ -1268,23 +1267,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45163</v>
       </c>
-      <c r="C13" s="16" t="str">
+      <c r="C13" t="str">
         <f>'สัญญาจ้าง(WO)'!B15</f>
         <v>WO2023060081</v>
       </c>
-      <c r="D13" s="16" t="str">
+      <c r="D13" t="str">
         <f>'สัญญาจ้าง(WO)'!C15</f>
         <v>เช่าห้องน้ำ</v>
       </c>
-      <c r="E13" s="16" t="str">
+      <c r="E13" t="str">
         <f>'สัญญาจ้าง(WO)'!D15</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F13" s="16" t="str">
+      <c r="F13" t="str">
         <f>'สัญญาจ้าง(WO)'!G15</f>
         <v>บริษัท อิทธริช จำกัด</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="14">
         <f>'สัญญาจ้าง(WO)'!H15</f>
         <v>20000</v>
       </c>
@@ -1298,23 +1297,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45134</v>
       </c>
-      <c r="C14" s="16" t="str">
+      <c r="C14" t="str">
         <f>'สัญญาจ้าง(WO)'!B16</f>
         <v>WO2023020077</v>
       </c>
-      <c r="D14" s="16" t="str">
+      <c r="D14" t="str">
         <f>'สัญญาจ้าง(WO)'!C16</f>
         <v>เช่าเครื่องถ่ายเอกสารขาว-ดำ 5 เดือน</v>
       </c>
-      <c r="E14" s="16" t="str">
+      <c r="E14" t="str">
         <f>'สัญญาจ้าง(WO)'!D16</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F14" s="16" t="str">
+      <c r="F14" t="str">
         <f>'สัญญาจ้าง(WO)'!G16</f>
         <v>บริษัท เฟรนด์ โอเอ เซ็นเตอร์ จำกัด</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="14">
         <f>'สัญญาจ้าง(WO)'!H16</f>
         <v>10000</v>
       </c>
@@ -1328,23 +1327,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45134</v>
       </c>
-      <c r="C15" s="16" t="str">
+      <c r="C15" t="str">
         <f>'สัญญาจ้าง(WO)'!B17</f>
         <v>WO2023020078</v>
       </c>
-      <c r="D15" s="16" t="str">
+      <c r="D15" t="str">
         <f>'สัญญาจ้าง(WO)'!C17</f>
         <v>เช่าเครื่องถ่ายเอกสารสี 5 เดือน</v>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="E15" t="str">
         <f>'สัญญาจ้าง(WO)'!D17</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F15" s="16" t="str">
+      <c r="F15" t="str">
         <f>'สัญญาจ้าง(WO)'!G17</f>
         <v>บริษัท เฟรนด์ โอเอ เซ็นเตอร์ จำกัด</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="14">
         <f>'สัญญาจ้าง(WO)'!H17</f>
         <v>15000</v>
       </c>
@@ -1358,23 +1357,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45138</v>
       </c>
-      <c r="C16" s="16" t="str">
+      <c r="C16" t="str">
         <f>'สัญญาจ้าง(WO)'!B18</f>
         <v>WO2023060122</v>
       </c>
-      <c r="D16" s="16" t="str">
+      <c r="D16" t="str">
         <f>'สัญญาจ้าง(WO)'!C18</f>
         <v>ค่าเช่านั่งร้าน Lot 1</v>
       </c>
-      <c r="E16" s="16" t="str">
+      <c r="E16" t="str">
         <f>'สัญญาจ้าง(WO)'!D18</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F16" s="16" t="str">
+      <c r="F16" t="str">
         <f>'สัญญาจ้าง(WO)'!G18</f>
         <v>บริษัท ฟอร์มเทค จำกัด</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="14">
         <f>'สัญญาจ้าง(WO)'!H18</f>
         <v>11490.67</v>
       </c>
@@ -1388,23 +1387,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45138</v>
       </c>
-      <c r="C17" s="16" t="str">
+      <c r="C17" t="str">
         <f>'สัญญาจ้าง(WO)'!B19</f>
         <v>WO2023060125</v>
       </c>
-      <c r="D17" s="16" t="str">
+      <c r="D17" t="str">
         <f>'สัญญาจ้าง(WO)'!C19</f>
         <v>ค่าเช่านั่งร้าน Lot 3</v>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="E17" t="str">
         <f>'สัญญาจ้าง(WO)'!D19</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F17" s="16" t="str">
+      <c r="F17" t="str">
         <f>'สัญญาจ้าง(WO)'!G19</f>
         <v>บริษัท ฟอร์มเทค จำกัด</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="14">
         <f>'สัญญาจ้าง(WO)'!H19</f>
         <v>4794.7700000000004</v>
       </c>
@@ -1418,23 +1417,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45138</v>
       </c>
-      <c r="C18" s="16" t="str">
+      <c r="C18" t="str">
         <f>'สัญญาจ้าง(WO)'!B20</f>
         <v>WO2023060127</v>
       </c>
-      <c r="D18" s="16" t="str">
+      <c r="D18" t="str">
         <f>'สัญญาจ้าง(WO)'!C20</f>
         <v>ค่าเช่านั่งร้าน Lot 4</v>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" t="str">
         <f>'สัญญาจ้าง(WO)'!D20</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F18" s="16" t="str">
+      <c r="F18" t="str">
         <f>'สัญญาจ้าง(WO)'!G20</f>
         <v>บริษัท ฟอร์มเทค จำกัด</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="14">
         <f>'สัญญาจ้าง(WO)'!H20</f>
         <v>4278</v>
       </c>
@@ -1448,23 +1447,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45138</v>
       </c>
-      <c r="C19" s="16" t="str">
+      <c r="C19" t="str">
         <f>'สัญญาจ้าง(WO)'!B21</f>
         <v>WO2023060128</v>
       </c>
-      <c r="D19" s="16" t="str">
+      <c r="D19" t="str">
         <f>'สัญญาจ้าง(WO)'!C21</f>
         <v>ค่าเช่านั่งร้าน Lot 5</v>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" t="str">
         <f>'สัญญาจ้าง(WO)'!D21</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F19" s="16" t="str">
+      <c r="F19" t="str">
         <f>'สัญญาจ้าง(WO)'!G21</f>
         <v>บริษัท ฟอร์มเทค จำกัด</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="14">
         <f>'สัญญาจ้าง(WO)'!H21</f>
         <v>1736</v>
       </c>
@@ -1478,23 +1477,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45138</v>
       </c>
-      <c r="C20" s="16" t="str">
+      <c r="C20" t="str">
         <f>'สัญญาจ้าง(WO)'!B22</f>
         <v>WO2023060129</v>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" t="str">
         <f>'สัญญาจ้าง(WO)'!C22</f>
         <v>ค่าเช่านั่งร้าน Lot 6</v>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" t="str">
         <f>'สัญญาจ้าง(WO)'!D22</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F20" s="16" t="str">
+      <c r="F20" t="str">
         <f>'สัญญาจ้าง(WO)'!G22</f>
         <v>บริษัท ฟอร์มเทค จำกัด</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="14">
         <f>'สัญญาจ้าง(WO)'!H22</f>
         <v>7812</v>
       </c>
@@ -1508,23 +1507,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45138</v>
       </c>
-      <c r="C21" s="16" t="str">
+      <c r="C21" t="str">
         <f>'สัญญาจ้าง(WO)'!B23</f>
         <v>WO2023060132</v>
       </c>
-      <c r="D21" s="16" t="str">
+      <c r="D21" t="str">
         <f>'สัญญาจ้าง(WO)'!C23</f>
         <v>ค่าเช่านั่งร้าน Lot 10</v>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" t="str">
         <f>'สัญญาจ้าง(WO)'!D23</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F21" s="16" t="str">
+      <c r="F21" t="str">
         <f>'สัญญาจ้าง(WO)'!G23</f>
         <v>บริษัท ฟอร์มเทค จำกัด</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="14">
         <f>'สัญญาจ้าง(WO)'!H23</f>
         <v>1310.68</v>
       </c>
@@ -1538,23 +1537,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45134</v>
       </c>
-      <c r="C22" s="16" t="str">
+      <c r="C22" t="str">
         <f>'สัญญาจ้าง(WO)'!B24</f>
         <v>WO2023060099</v>
       </c>
-      <c r="D22" s="16" t="str">
+      <c r="D22" t="str">
         <f>'สัญญาจ้าง(WO)'!C24</f>
         <v>เช่าเต็นท์</v>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" t="str">
         <f>'สัญญาจ้าง(WO)'!D24</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F22" s="16" t="str">
+      <c r="F22" t="str">
         <f>'สัญญาจ้าง(WO)'!G24</f>
         <v>บริษัท ก้าวหน้าผ้าใบ จำกัด</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="14">
         <f>'สัญญาจ้าง(WO)'!H24</f>
         <v>4600</v>
       </c>
@@ -1568,23 +1567,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45138</v>
       </c>
-      <c r="C23" s="16" t="str">
+      <c r="C23" t="str">
         <f>'สัญญาจ้าง(WO)'!B25</f>
         <v>WO2023060099</v>
       </c>
-      <c r="D23" s="16" t="str">
+      <c r="D23" t="str">
         <f>'สัญญาจ้าง(WO)'!C25</f>
         <v>เช่าเต็นท์</v>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" t="str">
         <f>'สัญญาจ้าง(WO)'!D25</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F23" s="16" t="str">
+      <c r="F23" t="str">
         <f>'สัญญาจ้าง(WO)'!G25</f>
         <v>บริษัท ก้าวหน้าผ้าใบ จำกัด</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="14">
         <f>'สัญญาจ้าง(WO)'!H25</f>
         <v>4600</v>
       </c>
@@ -1598,23 +1597,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45138</v>
       </c>
-      <c r="C24" s="16" t="str">
+      <c r="C24" t="str">
         <f>'สัญญาจ้าง(WO)'!B26</f>
         <v>WO2023060099</v>
       </c>
-      <c r="D24" s="16" t="str">
+      <c r="D24" t="str">
         <f>'สัญญาจ้าง(WO)'!C26</f>
         <v>เช่าเต็นท์</v>
       </c>
-      <c r="E24" s="16" t="str">
+      <c r="E24" t="str">
         <f>'สัญญาจ้าง(WO)'!D26</f>
         <v xml:space="preserve">งานปรับปรุง Facade โดยรอบอาคาร EnCo Terminal </v>
       </c>
-      <c r="F24" s="16" t="str">
+      <c r="F24" t="str">
         <f>'สัญญาจ้าง(WO)'!G26</f>
         <v>บริษัท ก้าวหน้าผ้าใบ จำกัด</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="14">
         <f>'สัญญาจ้าง(WO)'!H26</f>
         <v>4600</v>
       </c>
@@ -1628,23 +1627,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45167</v>
       </c>
-      <c r="C25" s="16" t="str">
+      <c r="C25" t="str">
         <f>'สัญญาจ้าง(WO)'!B27</f>
         <v>WO2023050112</v>
       </c>
-      <c r="D25" s="16" t="str">
+      <c r="D25" t="str">
         <f>'สัญญาจ้าง(WO)'!C27</f>
         <v>เช่าเครื่องถ่ายเอกสารสี 3 เดือน (Work station)</v>
       </c>
-      <c r="E25" s="16" t="str">
+      <c r="E25" t="str">
         <f>'สัญญาจ้าง(WO)'!D27</f>
         <v>จ้างก่อสร้างปรับปรุงโครงการ U Center 1 และ 2 (หมอน 29 เขตพาณิชย์สวนหลวง-สามย่าน)</v>
       </c>
-      <c r="F25" s="16" t="str">
+      <c r="F25" t="str">
         <f>'สัญญาจ้าง(WO)'!G27</f>
         <v>บริษัท เฟรนด์ โอเอ เซ็นเตอร์ จำกัด</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="14">
         <f>'สัญญาจ้าง(WO)'!H27</f>
         <v>7500</v>
       </c>
@@ -1658,23 +1657,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45240</v>
       </c>
-      <c r="C26" s="16" t="str">
+      <c r="C26" t="str">
         <f>'สัญญาจ้าง(WO)'!B28</f>
         <v>WO2023050016</v>
       </c>
-      <c r="D26" s="16" t="str">
+      <c r="D26" t="str">
         <f>'สัญญาจ้าง(WO)'!C28</f>
         <v>เช่าเครื่องถ่ายเอกสารสี 6 เดือน (consult)</v>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" t="str">
         <f>'สัญญาจ้าง(WO)'!D28</f>
         <v>จ้างก่อสร้างปรับปรุงโครงการ U Center 1 และ 2 (หมอน 29 เขตพาณิชย์สวนหลวง-สามย่าน)</v>
       </c>
-      <c r="F26" s="16" t="str">
+      <c r="F26" t="str">
         <f>'สัญญาจ้าง(WO)'!G28</f>
         <v>บริษัท เฟรนด์ โอเอ เซ็นเตอร์ จำกัด</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="14">
         <f>'สัญญาจ้าง(WO)'!H28</f>
         <v>15000</v>
       </c>
@@ -1688,23 +1687,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45188</v>
       </c>
-      <c r="C27" s="16" t="str">
+      <c r="C27" t="str">
         <f>'สัญญาจ้าง(WO)'!B29</f>
         <v>WO2023030032</v>
       </c>
-      <c r="D27" s="16" t="str">
+      <c r="D27" t="str">
         <f>'สัญญาจ้าง(WO)'!C29</f>
         <v>เช่านั่งร้าน 6 เดือน</v>
       </c>
-      <c r="E27" s="16" t="str">
+      <c r="E27" t="str">
         <f>'สัญญาจ้าง(WO)'!D29</f>
         <v>จ้างก่อสร้างปรับปรุงโครงการ U Center 1 และ 2 (หมอน 29 เขตพาณิชย์สวนหลวง-สามย่าน)</v>
       </c>
-      <c r="F27" s="16" t="str">
+      <c r="F27" t="str">
         <f>'สัญญาจ้าง(WO)'!G29</f>
         <v>บริษัท นิคเคน เออีเอส สแคฟโฟลดิ้ง (ไทยแลนด์) จำกัด</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="14">
         <f>'สัญญาจ้าง(WO)'!H29</f>
         <v>156924</v>
       </c>
@@ -1718,23 +1717,23 @@
         <f>EDATE(Table1[[#This Row],[Date]],-543*12)</f>
         <v>45154</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" t="str">
         <f>'สัญญาจ้าง(WO)'!B30</f>
         <v>WO2023070062</v>
       </c>
-      <c r="D28" s="16" t="str">
+      <c r="D28" t="str">
         <f>'สัญญาจ้าง(WO)'!C30</f>
         <v>เช่ารถ X-lift 5 คัน 1 เดือน</v>
       </c>
-      <c r="E28" s="16" t="str">
+      <c r="E28" t="str">
         <f>'สัญญาจ้าง(WO)'!D30</f>
         <v>จ้างก่อสร้างปรับปรุงโครงการ U Center 1 และ 2 (หมอน 29 เขตพาณิชย์สวนหลวง-สามย่าน)</v>
       </c>
-      <c r="F28" s="16" t="str">
+      <c r="F28" t="str">
         <f>'สัญญาจ้าง(WO)'!G30</f>
         <v>บริษัท พีดับบลิวเอ็ม แมชชีนเนอรี่ (ไทยแลนด์) จํากัด</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="14">
         <f>'สัญญาจ้าง(WO)'!H30</f>
         <v>225000</v>
       </c>
@@ -1782,34 +1781,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -2786,17 +2785,17 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:M3" xr:uid="{B003D390-F3A1-4691-ACDB-1D2AA9C2D5A6}"/>
@@ -2833,34 +2832,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="21">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3343,17 +3342,17 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:I12" xr:uid="{B160A455-BB78-433C-8593-AEFD75A9E489}"/>
